--- a/h_result.xlsx
+++ b/h_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E0348D-A63A-4284-BE56-53AE5995C1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C128C06-A4F9-48A2-9829-5A140FE10F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>11</v>
       </c>
       <c r="D2">
@@ -439,10 +439,10 @@
       <c r="F2">
         <v>29</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>26</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>7</v>
       </c>
     </row>

--- a/h_result.xlsx
+++ b/h_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C128C06-A4F9-48A2-9829-5A140FE10F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F00773-DFD0-488B-9427-CCA38DB9AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,43 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,18 +74,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -386,66 +417,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>22030</v>
-      </c>
-      <c r="B1" s="1">
-        <v>12</v>
-      </c>
-      <c r="C1">
-        <v>8</v>
-      </c>
-      <c r="D1">
-        <v>16</v>
-      </c>
-      <c r="E1">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1">
-        <v>26</v>
-      </c>
-      <c r="G1">
-        <v>28</v>
-      </c>
-      <c r="H1">
-        <v>14</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>22031</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
